--- a/src/assets/MonthAndWeekExample.xlsx
+++ b/src/assets/MonthAndWeekExample.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\admin_vsfintech\adminpanel\src\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D88B885-0D27-465D-B840-FF20C309AE11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61D4FDF9-9A9E-4DE8-BA8B-69610C747A83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -49,9 +49,6 @@
     <t>NFT500</t>
   </si>
   <si>
-    <t>NFT500MC50:25:25</t>
-  </si>
-  <si>
     <t>NFT500LGMSEQLCAPWTD</t>
   </si>
   <si>
@@ -193,12 +190,6 @@
     <t>NFT200QLT30</t>
   </si>
   <si>
-    <t>NFT50SRTDURDEBTDYNP/B</t>
-  </si>
-  <si>
-    <t>NFT50SRTDURDEBTDYNP/E</t>
-  </si>
-  <si>
     <t>NFTEQTSAV</t>
   </si>
   <si>
@@ -283,9 +274,6 @@
     <t>NFTINDCORPGRPITG</t>
   </si>
   <si>
-    <t>NFTINDCORPGRPITG25%C</t>
-  </si>
-  <si>
     <t>NFTTRANSLOG</t>
   </si>
   <si>
@@ -298,12 +286,6 @@
     <t>NFT500SH</t>
   </si>
   <si>
-    <t>NFT500MULCINDMFG50:30:20</t>
-  </si>
-  <si>
-    <t>NFT500MULCINFS50:30:20</t>
-  </si>
-  <si>
     <t>NFTSMEEMG</t>
   </si>
   <si>
@@ -316,9 +298,6 @@
     <t>NFTFINSERV</t>
   </si>
   <si>
-    <t>NFTFINSERV25/50</t>
-  </si>
-  <si>
     <t>NFTFINSERVEB</t>
   </si>
   <si>
@@ -368,6 +347,27 @@
   </si>
   <si>
     <t>NFTVIX</t>
+  </si>
+  <si>
+    <t>NFT500MC50_25_25</t>
+  </si>
+  <si>
+    <t>NFT500MULCINDMFG50_30_20</t>
+  </si>
+  <si>
+    <t>NFT500MULCINFS50_30_20</t>
+  </si>
+  <si>
+    <t>NFT50SRTDURDEBTDYNP_B</t>
+  </si>
+  <si>
+    <t>NFT50SRTDURDEBTDYNP_E</t>
+  </si>
+  <si>
+    <t>NFTFINSERV25_50</t>
+  </si>
+  <si>
+    <t>NFTINDCORPGRPITG25PC</t>
   </si>
 </sst>
 </file>
@@ -685,8 +685,8 @@
   </sheetPr>
   <dimension ref="A1:C114"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A101" workbookViewId="0">
-      <selection activeCell="F109" sqref="F109"/>
+    <sheetView tabSelected="1" topLeftCell="A95" workbookViewId="0">
+      <selection activeCell="F80" sqref="F80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -773,7 +773,7 @@
     </row>
     <row r="8" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
-        <v>9</v>
+        <v>109</v>
       </c>
       <c r="B8" s="2">
         <v>1</v>
@@ -784,7 +784,7 @@
     </row>
     <row r="9" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B9" s="2">
         <v>1</v>
@@ -795,7 +795,7 @@
     </row>
     <row r="10" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B10" s="2">
         <v>1</v>
@@ -806,7 +806,7 @@
     </row>
     <row r="11" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B11" s="2">
         <v>1</v>
@@ -817,7 +817,7 @@
     </row>
     <row r="12" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B12" s="2">
         <v>1</v>
@@ -828,7 +828,7 @@
     </row>
     <row r="13" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B13" s="2">
         <v>1</v>
@@ -839,7 +839,7 @@
     </row>
     <row r="14" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B14" s="2">
         <v>1</v>
@@ -850,7 +850,7 @@
     </row>
     <row r="15" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B15" s="2">
         <v>1</v>
@@ -861,7 +861,7 @@
     </row>
     <row r="16" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B16" s="2">
         <v>1</v>
@@ -872,7 +872,7 @@
     </row>
     <row r="17" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B17" s="2">
         <v>1</v>
@@ -883,7 +883,7 @@
     </row>
     <row r="18" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B18" s="2">
         <v>1</v>
@@ -894,7 +894,7 @@
     </row>
     <row r="19" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A19" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B19" s="2">
         <v>1</v>
@@ -905,7 +905,7 @@
     </row>
     <row r="20" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A20" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B20" s="2">
         <v>1</v>
@@ -916,7 +916,7 @@
     </row>
     <row r="21" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A21" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B21" s="2">
         <v>1</v>
@@ -927,7 +927,7 @@
     </row>
     <row r="22" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A22" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B22" s="2">
         <v>1</v>
@@ -938,7 +938,7 @@
     </row>
     <row r="23" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A23" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B23" s="2">
         <v>1</v>
@@ -949,7 +949,7 @@
     </row>
     <row r="24" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A24" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B24" s="2">
         <v>1</v>
@@ -960,7 +960,7 @@
     </row>
     <row r="25" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A25" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B25" s="2">
         <v>1</v>
@@ -971,7 +971,7 @@
     </row>
     <row r="26" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A26" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B26" s="2">
         <v>1</v>
@@ -982,7 +982,7 @@
     </row>
     <row r="27" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A27" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B27" s="2">
         <v>1</v>
@@ -993,7 +993,7 @@
     </row>
     <row r="28" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A28" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B28" s="2">
         <v>1</v>
@@ -1004,7 +1004,7 @@
     </row>
     <row r="29" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A29" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B29" s="2">
         <v>1</v>
@@ -1015,7 +1015,7 @@
     </row>
     <row r="30" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A30" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B30" s="2">
         <v>1</v>
@@ -1026,7 +1026,7 @@
     </row>
     <row r="31" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A31" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B31" s="2">
         <v>1</v>
@@ -1037,7 +1037,7 @@
     </row>
     <row r="32" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A32" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B32" s="2">
         <v>1</v>
@@ -1048,7 +1048,7 @@
     </row>
     <row r="33" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A33" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B33" s="2">
         <v>1</v>
@@ -1059,7 +1059,7 @@
     </row>
     <row r="34" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A34" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B34" s="2">
         <v>1</v>
@@ -1070,7 +1070,7 @@
     </row>
     <row r="35" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A35" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B35" s="2">
         <v>1</v>
@@ -1081,7 +1081,7 @@
     </row>
     <row r="36" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A36" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B36" s="2">
         <v>1</v>
@@ -1092,7 +1092,7 @@
     </row>
     <row r="37" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A37" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B37" s="2">
         <v>1</v>
@@ -1103,7 +1103,7 @@
     </row>
     <row r="38" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A38" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B38" s="2">
         <v>1</v>
@@ -1114,7 +1114,7 @@
     </row>
     <row r="39" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A39" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B39" s="2">
         <v>1</v>
@@ -1125,7 +1125,7 @@
     </row>
     <row r="40" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A40" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B40" s="2">
         <v>1</v>
@@ -1136,7 +1136,7 @@
     </row>
     <row r="41" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A41" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B41" s="2">
         <v>1</v>
@@ -1147,7 +1147,7 @@
     </row>
     <row r="42" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A42" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B42" s="2">
         <v>1</v>
@@ -1158,7 +1158,7 @@
     </row>
     <row r="43" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A43" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B43" s="2">
         <v>1</v>
@@ -1169,7 +1169,7 @@
     </row>
     <row r="44" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A44" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B44" s="2">
         <v>1</v>
@@ -1180,7 +1180,7 @@
     </row>
     <row r="45" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A45" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B45" s="2">
         <v>1</v>
@@ -1191,7 +1191,7 @@
     </row>
     <row r="46" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A46" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B46" s="2">
         <v>1</v>
@@ -1202,7 +1202,7 @@
     </row>
     <row r="47" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A47" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B47" s="2">
         <v>1</v>
@@ -1213,7 +1213,7 @@
     </row>
     <row r="48" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A48" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B48" s="2">
         <v>1</v>
@@ -1224,7 +1224,7 @@
     </row>
     <row r="49" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A49" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B49" s="2">
         <v>1</v>
@@ -1235,7 +1235,7 @@
     </row>
     <row r="50" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A50" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B50" s="2">
         <v>1</v>
@@ -1246,7 +1246,7 @@
     </row>
     <row r="51" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A51" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B51" s="2">
         <v>1</v>
@@ -1257,7 +1257,7 @@
     </row>
     <row r="52" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A52" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B52" s="2">
         <v>1</v>
@@ -1268,7 +1268,7 @@
     </row>
     <row r="53" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A53" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B53" s="2">
         <v>1</v>
@@ -1279,7 +1279,7 @@
     </row>
     <row r="54" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A54" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B54" s="2">
         <v>1</v>
@@ -1290,7 +1290,7 @@
     </row>
     <row r="55" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A55" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B55" s="2">
         <v>1</v>
@@ -1301,7 +1301,7 @@
     </row>
     <row r="56" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A56" s="4" t="s">
-        <v>57</v>
+        <v>112</v>
       </c>
       <c r="B56" s="2">
         <v>1</v>
@@ -1312,7 +1312,7 @@
     </row>
     <row r="57" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A57" s="4" t="s">
-        <v>58</v>
+        <v>113</v>
       </c>
       <c r="B57" s="2">
         <v>1</v>
@@ -1323,7 +1323,7 @@
     </row>
     <row r="58" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A58" s="4" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B58" s="2">
         <v>1</v>
@@ -1334,7 +1334,7 @@
     </row>
     <row r="59" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A59" s="4" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B59" s="2">
         <v>1</v>
@@ -1345,7 +1345,7 @@
     </row>
     <row r="60" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A60" s="4" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B60" s="2">
         <v>1</v>
@@ -1356,7 +1356,7 @@
     </row>
     <row r="61" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A61" s="4" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B61" s="2">
         <v>1</v>
@@ -1367,7 +1367,7 @@
     </row>
     <row r="62" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A62" s="4" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B62" s="2">
         <v>1</v>
@@ -1378,7 +1378,7 @@
     </row>
     <row r="63" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A63" s="4" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B63" s="2">
         <v>1</v>
@@ -1389,7 +1389,7 @@
     </row>
     <row r="64" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A64" s="4" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B64" s="2">
         <v>1</v>
@@ -1400,7 +1400,7 @@
     </row>
     <row r="65" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A65" s="4" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B65" s="2">
         <v>1</v>
@@ -1411,7 +1411,7 @@
     </row>
     <row r="66" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A66" s="4" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B66" s="2">
         <v>1</v>
@@ -1422,7 +1422,7 @@
     </row>
     <row r="67" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A67" s="4" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B67" s="2">
         <v>1</v>
@@ -1433,7 +1433,7 @@
     </row>
     <row r="68" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A68" s="4" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B68" s="2">
         <v>1</v>
@@ -1444,7 +1444,7 @@
     </row>
     <row r="69" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A69" s="4" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B69" s="2">
         <v>1</v>
@@ -1455,7 +1455,7 @@
     </row>
     <row r="70" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A70" s="4" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B70" s="2">
         <v>1</v>
@@ -1466,7 +1466,7 @@
     </row>
     <row r="71" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A71" s="4" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B71" s="2">
         <v>1</v>
@@ -1477,7 +1477,7 @@
     </row>
     <row r="72" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A72" s="4" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B72" s="2">
         <v>1</v>
@@ -1488,7 +1488,7 @@
     </row>
     <row r="73" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A73" s="4" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B73" s="2">
         <v>1</v>
@@ -1499,7 +1499,7 @@
     </row>
     <row r="74" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A74" s="4" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B74" s="2">
         <v>1</v>
@@ -1510,7 +1510,7 @@
     </row>
     <row r="75" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A75" s="4" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B75" s="2">
         <v>1</v>
@@ -1521,7 +1521,7 @@
     </row>
     <row r="76" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A76" s="4" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B76" s="2">
         <v>1</v>
@@ -1532,7 +1532,7 @@
     </row>
     <row r="77" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A77" s="4" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B77" s="2">
         <v>1</v>
@@ -1543,7 +1543,7 @@
     </row>
     <row r="78" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A78" s="4" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B78" s="2">
         <v>1</v>
@@ -1554,7 +1554,7 @@
     </row>
     <row r="79" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A79" s="4" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B79" s="2">
         <v>1</v>
@@ -1565,7 +1565,7 @@
     </row>
     <row r="80" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A80" s="4" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B80" s="2">
         <v>1</v>
@@ -1576,7 +1576,7 @@
     </row>
     <row r="81" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A81" s="4" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B81" s="2">
         <v>1</v>
@@ -1587,7 +1587,7 @@
     </row>
     <row r="82" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A82" s="4" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B82" s="2">
         <v>1</v>
@@ -1598,7 +1598,7 @@
     </row>
     <row r="83" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A83" s="4" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="B83" s="2">
         <v>1</v>
@@ -1609,7 +1609,7 @@
     </row>
     <row r="84" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A84" s="4" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B84" s="2">
         <v>1</v>
@@ -1620,7 +1620,7 @@
     </row>
     <row r="85" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A85" s="4" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B85" s="2">
         <v>1</v>
@@ -1631,7 +1631,7 @@
     </row>
     <row r="86" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A86" s="4" t="s">
-        <v>87</v>
+        <v>115</v>
       </c>
       <c r="B86" s="2">
         <v>1</v>
@@ -1642,7 +1642,7 @@
     </row>
     <row r="87" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A87" s="4" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="B87" s="2">
         <v>1</v>
@@ -1653,7 +1653,7 @@
     </row>
     <row r="88" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A88" s="4" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="B88" s="2">
         <v>1</v>
@@ -1664,7 +1664,7 @@
     </row>
     <row r="89" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A89" s="4" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="B89" s="2">
         <v>1</v>
@@ -1675,7 +1675,7 @@
     </row>
     <row r="90" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A90" s="4" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="B90" s="2">
         <v>1</v>
@@ -1686,7 +1686,7 @@
     </row>
     <row r="91" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A91" s="4" t="s">
-        <v>92</v>
+        <v>110</v>
       </c>
       <c r="B91" s="2">
         <v>1</v>
@@ -1697,7 +1697,7 @@
     </row>
     <row r="92" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A92" s="4" t="s">
-        <v>93</v>
+        <v>111</v>
       </c>
       <c r="B92" s="2">
         <v>1</v>
@@ -1708,7 +1708,7 @@
     </row>
     <row r="93" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A93" s="4" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="B93" s="2">
         <v>1</v>
@@ -1719,7 +1719,7 @@
     </row>
     <row r="94" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A94" s="4" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="B94" s="2">
         <v>1</v>
@@ -1730,7 +1730,7 @@
     </row>
     <row r="95" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A95" s="4" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="B95" s="2">
         <v>1</v>
@@ -1741,7 +1741,7 @@
     </row>
     <row r="96" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A96" s="4" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="B96" s="2">
         <v>1</v>
@@ -1752,7 +1752,7 @@
     </row>
     <row r="97" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A97" s="4" t="s">
-        <v>98</v>
+        <v>114</v>
       </c>
       <c r="B97" s="2">
         <v>1</v>
@@ -1763,7 +1763,7 @@
     </row>
     <row r="98" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A98" s="4" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="B98" s="2">
         <v>1</v>
@@ -1774,7 +1774,7 @@
     </row>
     <row r="99" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A99" s="4" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="B99" s="2">
         <v>1</v>
@@ -1785,7 +1785,7 @@
     </row>
     <row r="100" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A100" s="4" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="B100" s="2">
         <v>1</v>
@@ -1796,7 +1796,7 @@
     </row>
     <row r="101" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A101" s="4" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="B101" s="2">
         <v>1</v>
@@ -1807,7 +1807,7 @@
     </row>
     <row r="102" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A102" s="4" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="B102" s="2">
         <v>1</v>
@@ -1818,7 +1818,7 @@
     </row>
     <row r="103" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A103" s="4" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="B103" s="2">
         <v>1</v>
@@ -1829,7 +1829,7 @@
     </row>
     <row r="104" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A104" s="4" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="B104" s="2">
         <v>1</v>
@@ -1840,7 +1840,7 @@
     </row>
     <row r="105" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A105" s="4" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="B105" s="2">
         <v>1</v>
@@ -1851,7 +1851,7 @@
     </row>
     <row r="106" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A106" s="4" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="B106" s="2">
         <v>1</v>
@@ -1862,7 +1862,7 @@
     </row>
     <row r="107" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A107" s="4" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="B107" s="2">
         <v>1</v>
@@ -1873,7 +1873,7 @@
     </row>
     <row r="108" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A108" s="4" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="B108" s="2">
         <v>1</v>
@@ -1884,7 +1884,7 @@
     </row>
     <row r="109" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A109" s="4" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="B109" s="2">
         <v>1</v>
@@ -1895,7 +1895,7 @@
     </row>
     <row r="110" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A110" s="4" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="B110" s="2">
         <v>1</v>
@@ -1906,7 +1906,7 @@
     </row>
     <row r="111" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A111" s="4" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="B111" s="2">
         <v>1</v>
@@ -1917,7 +1917,7 @@
     </row>
     <row r="112" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A112" s="4" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="B112" s="2">
         <v>1</v>
@@ -1928,7 +1928,7 @@
     </row>
     <row r="113" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A113" s="4" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="B113" s="2">
         <v>1</v>
@@ -1939,7 +1939,7 @@
     </row>
     <row r="114" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A114" s="4" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="B114" s="2">
         <v>1</v>

--- a/src/assets/MonthAndWeekExample.xlsx
+++ b/src/assets/MonthAndWeekExample.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\admin_vsfintech\adminpanel\src\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61D4FDF9-9A9E-4DE8-BA8B-69610C747A83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80D4C6B2-D5A7-4599-A76C-18CED6DA907B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -226,9 +226,6 @@
     <t>NFTCONS</t>
   </si>
   <si>
-    <t>NFTINDCONS</t>
-  </si>
-  <si>
     <t>NFTINDDIG</t>
   </si>
   <si>
@@ -368,6 +365,9 @@
   </si>
   <si>
     <t>NFTINDCORPGRPITG25PC</t>
+  </si>
+  <si>
+    <t>NFTDEF</t>
   </si>
 </sst>
 </file>
@@ -685,8 +685,8 @@
   </sheetPr>
   <dimension ref="A1:C114"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A95" workbookViewId="0">
-      <selection activeCell="F80" sqref="F80"/>
+    <sheetView tabSelected="1" topLeftCell="A56" workbookViewId="0">
+      <selection activeCell="A70" sqref="A70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -773,7 +773,7 @@
     </row>
     <row r="8" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B8" s="2">
         <v>1</v>
@@ -1301,7 +1301,7 @@
     </row>
     <row r="56" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A56" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B56" s="2">
         <v>1</v>
@@ -1312,7 +1312,7 @@
     </row>
     <row r="57" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A57" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B57" s="2">
         <v>1</v>
@@ -1455,7 +1455,7 @@
     </row>
     <row r="70" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A70" s="4" t="s">
-        <v>68</v>
+        <v>115</v>
       </c>
       <c r="B70" s="2">
         <v>1</v>
@@ -1466,7 +1466,7 @@
     </row>
     <row r="71" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A71" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B71" s="2">
         <v>1</v>
@@ -1477,7 +1477,7 @@
     </row>
     <row r="72" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A72" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B72" s="2">
         <v>1</v>
@@ -1488,7 +1488,7 @@
     </row>
     <row r="73" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A73" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B73" s="2">
         <v>1</v>
@@ -1499,7 +1499,7 @@
     </row>
     <row r="74" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A74" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B74" s="2">
         <v>1</v>
@@ -1510,7 +1510,7 @@
     </row>
     <row r="75" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A75" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B75" s="2">
         <v>1</v>
@@ -1521,7 +1521,7 @@
     </row>
     <row r="76" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A76" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B76" s="2">
         <v>1</v>
@@ -1532,7 +1532,7 @@
     </row>
     <row r="77" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A77" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B77" s="2">
         <v>1</v>
@@ -1543,7 +1543,7 @@
     </row>
     <row r="78" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A78" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B78" s="2">
         <v>1</v>
@@ -1554,7 +1554,7 @@
     </row>
     <row r="79" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A79" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B79" s="2">
         <v>1</v>
@@ -1565,7 +1565,7 @@
     </row>
     <row r="80" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A80" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B80" s="2">
         <v>1</v>
@@ -1576,7 +1576,7 @@
     </row>
     <row r="81" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A81" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B81" s="2">
         <v>1</v>
@@ -1587,7 +1587,7 @@
     </row>
     <row r="82" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A82" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B82" s="2">
         <v>1</v>
@@ -1598,7 +1598,7 @@
     </row>
     <row r="83" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A83" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B83" s="2">
         <v>1</v>
@@ -1609,7 +1609,7 @@
     </row>
     <row r="84" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A84" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B84" s="2">
         <v>1</v>
@@ -1620,7 +1620,7 @@
     </row>
     <row r="85" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A85" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B85" s="2">
         <v>1</v>
@@ -1631,7 +1631,7 @@
     </row>
     <row r="86" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A86" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B86" s="2">
         <v>1</v>
@@ -1642,7 +1642,7 @@
     </row>
     <row r="87" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A87" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B87" s="2">
         <v>1</v>
@@ -1653,7 +1653,7 @@
     </row>
     <row r="88" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A88" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B88" s="2">
         <v>1</v>
@@ -1664,7 +1664,7 @@
     </row>
     <row r="89" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A89" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B89" s="2">
         <v>1</v>
@@ -1675,7 +1675,7 @@
     </row>
     <row r="90" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A90" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B90" s="2">
         <v>1</v>
@@ -1686,7 +1686,7 @@
     </row>
     <row r="91" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A91" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B91" s="2">
         <v>1</v>
@@ -1697,7 +1697,7 @@
     </row>
     <row r="92" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A92" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B92" s="2">
         <v>1</v>
@@ -1708,7 +1708,7 @@
     </row>
     <row r="93" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A93" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B93" s="2">
         <v>1</v>
@@ -1719,7 +1719,7 @@
     </row>
     <row r="94" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A94" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B94" s="2">
         <v>1</v>
@@ -1730,7 +1730,7 @@
     </row>
     <row r="95" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A95" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B95" s="2">
         <v>1</v>
@@ -1741,7 +1741,7 @@
     </row>
     <row r="96" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A96" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B96" s="2">
         <v>1</v>
@@ -1752,7 +1752,7 @@
     </row>
     <row r="97" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A97" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B97" s="2">
         <v>1</v>
@@ -1763,7 +1763,7 @@
     </row>
     <row r="98" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A98" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B98" s="2">
         <v>1</v>
@@ -1774,7 +1774,7 @@
     </row>
     <row r="99" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A99" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B99" s="2">
         <v>1</v>
@@ -1785,7 +1785,7 @@
     </row>
     <row r="100" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A100" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B100" s="2">
         <v>1</v>
@@ -1796,7 +1796,7 @@
     </row>
     <row r="101" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A101" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B101" s="2">
         <v>1</v>
@@ -1807,7 +1807,7 @@
     </row>
     <row r="102" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A102" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B102" s="2">
         <v>1</v>
@@ -1818,7 +1818,7 @@
     </row>
     <row r="103" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A103" s="4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B103" s="2">
         <v>1</v>
@@ -1829,7 +1829,7 @@
     </row>
     <row r="104" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A104" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B104" s="2">
         <v>1</v>
@@ -1840,7 +1840,7 @@
     </row>
     <row r="105" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A105" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B105" s="2">
         <v>1</v>
@@ -1851,7 +1851,7 @@
     </row>
     <row r="106" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A106" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B106" s="2">
         <v>1</v>
@@ -1862,7 +1862,7 @@
     </row>
     <row r="107" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A107" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B107" s="2">
         <v>1</v>
@@ -1873,7 +1873,7 @@
     </row>
     <row r="108" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A108" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B108" s="2">
         <v>1</v>
@@ -1884,7 +1884,7 @@
     </row>
     <row r="109" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A109" s="4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B109" s="2">
         <v>1</v>
@@ -1895,7 +1895,7 @@
     </row>
     <row r="110" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A110" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B110" s="2">
         <v>1</v>
@@ -1906,7 +1906,7 @@
     </row>
     <row r="111" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A111" s="4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B111" s="2">
         <v>1</v>
@@ -1917,7 +1917,7 @@
     </row>
     <row r="112" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A112" s="4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B112" s="2">
         <v>1</v>
@@ -1928,7 +1928,7 @@
     </row>
     <row r="113" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A113" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B113" s="2">
         <v>1</v>
@@ -1939,7 +1939,7 @@
     </row>
     <row r="114" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A114" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B114" s="2">
         <v>1</v>
